--- a/hardware/algyan_8th.es2.xlsx
+++ b/hardware/algyan_8th.es2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\takashi\Documents\Repo\algyan_8th\hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678EA5BD-29E4-4534-9370-05471CE8D25D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10FF7805-A098-490A-889B-771FB1A7E6EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="98">
   <si>
     <t>Part</t>
   </si>
@@ -261,7 +261,98 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>通販在庫数</t>
+    <t>P-16143</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P-16994</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(C1)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C-12634</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I-11580</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R-11619</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(R5)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(R1)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(R3)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>M-17454</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D,AAA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I-10981</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D,A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I-09878</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P-09828</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P-06357</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P-08012</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P-06110</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>合計</t>
+    <rPh sb="0" eb="2">
+      <t>ゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通販在庫数(2/2)</t>
     <rPh sb="0" eb="2">
       <t>ツウハン</t>
     </rPh>
@@ -271,93 +362,23 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>P-16143</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>P-16994</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(C1)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>C-12634</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>I-11580</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>R-11619</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(R5)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>?</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(R1)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(R3)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>M-17454</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D,AAA</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AA</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>I-10981</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D,A</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>I-09878</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>P-09828</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>P-06357</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>P-08012</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>P-06110</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>合計</t>
+    <t>通販在庫数(2/8)</t>
     <rPh sb="0" eb="2">
-      <t>ゴウケイ</t>
+      <t>ツウハン</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ザイコスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P-05728</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（価格）</t>
+    <rPh sb="1" eb="3">
+      <t>カカク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -420,8 +441,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -702,7 +723,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
@@ -718,20 +739,21 @@
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="7" max="7" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="F1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G1">
-        <f>SUM(G4:G46)</f>
+    <row r="1" spans="1:9">
+      <c r="G1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H1">
+        <f>SUM(H4:H47)</f>
         <v>2480</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -745,16 +767,22 @@
         <v>71</v>
       </c>
       <c r="E3" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="F3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G3" t="s">
         <v>68</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="I3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -771,13 +799,16 @@
         <v>22187</v>
       </c>
       <c r="F4">
+        <v>22100</v>
+      </c>
+      <c r="G4">
         <v>10</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -785,7 +816,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D5" t="s">
         <v>70</v>
@@ -793,579 +824,631 @@
       <c r="E5" s="1">
         <v>100</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
+        <v>100</v>
+      </c>
+      <c r="G5">
         <v>40</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:9">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3">
+        <v>2437</v>
+      </c>
+      <c r="G6" s="3">
+        <v>100</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8">
+        <v>2960</v>
+      </c>
+      <c r="F8" s="4">
+        <v>2947</v>
+      </c>
+      <c r="G8">
+        <v>20</v>
+      </c>
+      <c r="H8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
         <v>74</v>
       </c>
-      <c r="D7" t="s">
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" t="s">
         <v>70</v>
       </c>
-      <c r="E7">
-        <v>2960</v>
-      </c>
-      <c r="F7">
+      <c r="E13">
+        <v>706</v>
+      </c>
+      <c r="F13">
+        <v>690</v>
+      </c>
+      <c r="G13">
+        <v>10</v>
+      </c>
+      <c r="H13">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
         <v>20</v>
       </c>
-      <c r="G7">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18">
+        <v>2411</v>
+      </c>
+      <c r="F18">
+        <v>2406</v>
+      </c>
+      <c r="G18">
         <v>10</v>
       </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D12" t="s">
-        <v>70</v>
-      </c>
-      <c r="E12">
-        <v>706</v>
-      </c>
-      <c r="F12">
-        <v>10</v>
-      </c>
-      <c r="G12">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" t="s">
-        <v>77</v>
-      </c>
-      <c r="D17" t="s">
-        <v>70</v>
-      </c>
-      <c r="E17">
-        <v>2411</v>
-      </c>
-      <c r="F17">
-        <v>10</v>
-      </c>
-      <c r="G17">
+      <c r="H18">
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
-      <c r="A18" t="s">
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
         <v>22</v>
-      </c>
-      <c r="B18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" t="s">
-        <v>24</v>
       </c>
       <c r="B19" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
         <v>25</v>
-      </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" t="s">
-        <v>27</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
         <v>28</v>
-      </c>
-      <c r="B22" s="2">
-        <v>0</v>
-      </c>
-      <c r="C22" t="s">
-        <v>78</v>
-      </c>
-      <c r="D22" t="s">
-        <v>70</v>
-      </c>
-      <c r="E22">
-        <v>340</v>
-      </c>
-      <c r="F22">
-        <v>200</v>
-      </c>
-      <c r="G22">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" t="s">
-        <v>29</v>
       </c>
       <c r="B23" s="2">
         <v>0</v>
       </c>
       <c r="C23" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23">
+        <v>340</v>
+      </c>
+      <c r="F23">
+        <v>330</v>
+      </c>
+      <c r="G23">
+        <v>200</v>
+      </c>
+      <c r="H23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="4" t="s">
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B26" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="4" t="s">
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B27" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" t="s">
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
         <v>33</v>
-      </c>
-      <c r="B27" s="2">
-        <v>0</v>
-      </c>
-      <c r="C27" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" t="s">
-        <v>34</v>
       </c>
       <c r="B28" s="2">
         <v>0</v>
       </c>
       <c r="C28" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
         <v>35</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="2">
+        <v>0</v>
+      </c>
+      <c r="C35" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34" s="2">
-        <v>0</v>
-      </c>
-      <c r="C34" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" t="s">
-        <v>41</v>
-      </c>
-      <c r="B35" t="s">
-        <v>42</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="D36" t="s">
+        <v>70</v>
+      </c>
+      <c r="E36">
+        <v>2024</v>
+      </c>
+      <c r="F36">
+        <v>2005</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" t="s">
+        <v>45</v>
+      </c>
+      <c r="D37" t="s">
         <v>83</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E37">
+        <v>3664</v>
+      </c>
+      <c r="F37">
+        <v>3664</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3">
+        <v>2</v>
+      </c>
+      <c r="G38" s="3">
+        <v>1</v>
+      </c>
+      <c r="H38" s="3"/>
+      <c r="I38">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" t="s">
+        <v>87</v>
+      </c>
+      <c r="D39" t="s">
         <v>70</v>
       </c>
-      <c r="E35">
-        <v>2024</v>
-      </c>
-      <c r="F35">
+      <c r="E39">
+        <v>561</v>
+      </c>
+      <c r="F39">
+        <v>506</v>
+      </c>
+      <c r="G39">
         <v>1</v>
       </c>
-      <c r="G35">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" t="s">
-        <v>43</v>
-      </c>
-      <c r="B36" t="s">
-        <v>44</v>
-      </c>
-      <c r="C36" t="s">
-        <v>45</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="H39">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" t="s">
+        <v>52</v>
+      </c>
+      <c r="D40" t="s">
         <v>84</v>
       </c>
-      <c r="E36">
-        <v>3664</v>
-      </c>
-      <c r="F36">
+      <c r="E40">
+        <v>257</v>
+      </c>
+      <c r="F40">
+        <v>256</v>
+      </c>
+      <c r="G40">
         <v>1</v>
       </c>
-      <c r="G36">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" t="s">
-        <v>48</v>
-      </c>
-      <c r="B38" t="s">
-        <v>49</v>
-      </c>
-      <c r="C38" t="s">
-        <v>88</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="H40">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" t="s">
+        <v>53</v>
+      </c>
+      <c r="B41" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" t="s">
+        <v>55</v>
+      </c>
+      <c r="D41" t="s">
         <v>70</v>
       </c>
-      <c r="E38">
-        <v>561</v>
-      </c>
-      <c r="F38">
+      <c r="E41">
+        <v>2848</v>
+      </c>
+      <c r="F41">
+        <v>2844</v>
+      </c>
+      <c r="G41">
         <v>1</v>
       </c>
-      <c r="G38">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" t="s">
-        <v>50</v>
-      </c>
-      <c r="B39" t="s">
-        <v>51</v>
-      </c>
-      <c r="C39" t="s">
-        <v>52</v>
-      </c>
-      <c r="D39" t="s">
-        <v>85</v>
-      </c>
-      <c r="E39">
-        <v>257</v>
-      </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
-      <c r="G39">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" t="s">
-        <v>53</v>
-      </c>
-      <c r="B40" t="s">
-        <v>54</v>
-      </c>
-      <c r="C40" t="s">
-        <v>55</v>
-      </c>
-      <c r="D40" t="s">
-        <v>70</v>
-      </c>
-      <c r="E40">
-        <v>2848</v>
-      </c>
-      <c r="F40">
-        <v>1</v>
-      </c>
-      <c r="G40">
+      <c r="H41">
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="3" t="s">
+    <row r="42" spans="1:9">
+      <c r="A42" t="s">
         <v>56</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B42" t="s">
         <v>57</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C42" t="s">
         <v>58</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E41" s="3">
-        <v>412</v>
-      </c>
-      <c r="F41" s="3">
-        <v>1</v>
-      </c>
-      <c r="G41" s="3">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" t="s">
-        <v>59</v>
-      </c>
-      <c r="B42" t="s">
-        <v>60</v>
-      </c>
-      <c r="C42" t="s">
-        <v>89</v>
       </c>
       <c r="D42" t="s">
         <v>70</v>
       </c>
       <c r="E42">
-        <v>4278</v>
+        <v>412</v>
       </c>
       <c r="F42">
+        <v>409</v>
+      </c>
+      <c r="G42">
         <v>1</v>
       </c>
-      <c r="G42">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B43" t="s">
         <v>60</v>
       </c>
       <c r="C43" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D43" t="s">
         <v>70</v>
@@ -1374,70 +1457,111 @@
         <v>4278</v>
       </c>
       <c r="F43">
+        <v>3880</v>
+      </c>
+      <c r="G43">
         <v>1</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="4" t="s">
+    <row r="44" spans="1:9">
+      <c r="A44" t="s">
+        <v>61</v>
+      </c>
+      <c r="B44" t="s">
+        <v>60</v>
+      </c>
+      <c r="C44" t="s">
+        <v>88</v>
+      </c>
+      <c r="D44" t="s">
+        <v>70</v>
+      </c>
+      <c r="E44">
+        <v>4278</v>
+      </c>
+      <c r="F44">
+        <v>3880</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B45" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C45" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D45" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
+        <v>1</v>
+      </c>
+      <c r="H45" s="3"/>
+      <c r="I45" s="4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" t="s">
+        <v>64</v>
+      </c>
+      <c r="B46" t="s">
+        <v>26</v>
+      </c>
+      <c r="C46" t="s">
+        <v>92</v>
+      </c>
+      <c r="D46" t="s">
+        <v>70</v>
+      </c>
+      <c r="E46">
+        <v>2000</v>
+      </c>
+      <c r="F46">
+        <v>2000</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E44" s="4">
-        <v>0</v>
-      </c>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" t="s">
-        <v>64</v>
-      </c>
-      <c r="B45" t="s">
-        <v>26</v>
-      </c>
-      <c r="C45" t="s">
-        <v>93</v>
-      </c>
-      <c r="D45" t="s">
+      <c r="D47" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E45">
-        <v>2000</v>
-      </c>
-      <c r="F45">
-        <v>1</v>
-      </c>
-      <c r="G45">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
